--- a/vtiger-crm-fw-a12/src/test/resources/TestScriptData.xlsx
+++ b/vtiger-crm-fw-a12/src/test/resources/TestScriptData.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diksha\git\vtiger-crm-fw-A12\vtiger-crm-fw-a12\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2174415C-8CF0-476B-8904-16F2B748F4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D57539-04E7-47FF-BFBD-3BEC49D75EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A12" sheetId="1" r:id="rId1"/>
     <sheet name="org" sheetId="2" r:id="rId2"/>
+    <sheet name="contact" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>NAMES</t>
   </si>
@@ -122,12 +123,76 @@
   </si>
   <si>
     <t>tcs_</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Gautam</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>Tomar</t>
+  </si>
+  <si>
+    <t>Srivastav</t>
+  </si>
+  <si>
+    <t>Shakya</t>
+  </si>
+  <si>
+    <t>Ghalot</t>
+  </si>
+  <si>
+    <t>Jha</t>
+  </si>
+  <si>
+    <t>Yadav</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Rathod</t>
+  </si>
+  <si>
+    <t>Manav</t>
+  </si>
+  <si>
+    <t>Mathur</t>
+  </si>
+  <si>
+    <t>Rastogi</t>
+  </si>
+  <si>
+    <t>Aggarwal</t>
+  </si>
+  <si>
+    <t>Mishra</t>
+  </si>
+  <si>
+    <t>EY_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,6 +264,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -489,8 +560,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.90625"/>
+    <col min="2" max="2" customWidth="true" width="17.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -590,13 +661,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E98598C-DFBE-4869-AC7F-72E86820DBC9}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -604,9 +675,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -652,6 +723,124 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AABCCC3-C037-4E66-A5BB-071FB2233776}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="6" width="11.6328125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
